--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05C77A3-5633-5A44-BE0C-6428044A35EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB85A59-8F16-2142-8B78-43BEDA95319B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14720" yWindow="1720" windowWidth="17500" windowHeight="18980" xr2:uid="{84575686-D333-47A9-97C0-193D95775C32}"/>
+    <workbookView xWindow="18200" yWindow="1600" windowWidth="15600" windowHeight="18980" xr2:uid="{84575686-D333-47A9-97C0-193D95775C32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -252,10 +252,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>userテーブル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>eventテーブル</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -370,6 +366,10 @@
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user_infoテーブル</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -800,7 +800,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -866,7 +866,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="7" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1">
@@ -1073,7 +1073,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1117,13 +1117,13 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="2">
         <v>4</v>
@@ -1143,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>35</v>
@@ -1167,13 +1167,13 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="2">
         <v>8</v>
@@ -1189,10 +1189,10 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>35</v>
@@ -1211,16 +1211,16 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -1233,13 +1233,13 @@
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1334,13 +1334,13 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="2">
         <v>4</v>
@@ -1356,10 +1356,10 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>35</v>
@@ -1378,16 +1378,16 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
